--- a/account/単体テスト 提出用.xlsx
+++ b/account/単体テスト 提出用.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="871" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4AC58D-1223-49C3-8DBC-9DF5BDBA673B}"/>
+  <xr:revisionPtr revIDLastSave="897" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1899ABB-0A08-43C9-8ACE-77B7B0F27D11}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="190">
   <si>
     <t>NO</t>
   </si>
@@ -339,9 +339,21 @@
     <t>[-]・[スペース][ひらがな][漢字][半角数字][全角カタカナ]全部使用して10文字以内入力してenter</t>
   </si>
   <si>
+    <t>全角カタカナを10文字以内で入力してenter</t>
+  </si>
+  <si>
     <t>住所（番地）</t>
   </si>
   <si>
+    <t>半角英字を１０0文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>[-]・[スペース][ひらがな][漢字][半角数字][全角カタカナ]全部使用して100文字以内入力してenter</t>
+  </si>
+  <si>
+    <t>全角カタカナを100文字以内で入力してenter</t>
+  </si>
+  <si>
     <t>１0１文字目が入力できない</t>
   </si>
   <si>
@@ -351,10 +363,10 @@
     <t>指定項目を選択できるかどうか</t>
   </si>
   <si>
-    <t>一般を選択</t>
-  </si>
-  <si>
-    <t>管理者を選択</t>
+    <t>一般を選択できたら○</t>
+  </si>
+  <si>
+    <t>管理者を選択できたら○</t>
   </si>
   <si>
     <t>一般</t>
@@ -369,10 +381,13 @@
     <t>全未入力状態で「確認する」をクリック</t>
   </si>
   <si>
+    <t>全項目の下に赤字で○◯（未入力の項目名）が未入力です。</t>
+  </si>
+  <si>
     <t>全項目の下に赤字で○◯が未入力です。</t>
   </si>
   <si>
-    <t>全項目入力状態で「確認する」をクリック</t>
+    <t>全項目指定文字を入力状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>エラー表示なく遷移先に移動するかどうか</t>
@@ -1112,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:A158"/>
+    <sheetView tabSelected="1" topLeftCell="D114" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1905,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1922,7 +1937,7 @@
         <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1936,7 +1951,7 @@
         <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1964,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2679,7 +2694,7 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F106" t="s">
         <v>23</v>
@@ -2735,10 +2750,10 @@
         <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
         <v>23</v>
@@ -2755,7 +2770,7 @@
         <v>100</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
         <v>23</v>
@@ -2772,7 +2787,7 @@
         <v>101</v>
       </c>
       <c r="E112" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F112" t="s">
         <v>23</v>
@@ -2786,7 +2801,7 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F113" t="s">
         <v>23</v>
@@ -2800,7 +2815,7 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F114" t="s">
         <v>23</v>
@@ -2814,7 +2829,7 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F115" t="s">
         <v>23</v>
@@ -2828,7 +2843,7 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F116" t="s">
         <v>23</v>
@@ -2842,7 +2857,7 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F117" t="s">
         <v>23</v>
@@ -2856,7 +2871,7 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F118" t="s">
         <v>23</v>
@@ -2901,7 +2916,7 @@
         <v>57</v>
       </c>
       <c r="F121" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G121" t="s">
         <v>59</v>
@@ -2912,7 +2927,7 @@
         <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E122" t="s">
         <v>95</v>
@@ -2929,10 +2944,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F123" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G123" t="s">
         <v>70</v>
@@ -2943,10 +2958,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F124" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G124" t="s">
         <v>70</v>
@@ -2963,7 +2978,7 @@
         <v>98</v>
       </c>
       <c r="G125" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -2971,19 +2986,19 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D126" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F126" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G126" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -2991,16 +3006,16 @@
         <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E127" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F127" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G127" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14.25">
@@ -3008,19 +3023,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E128" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G128" t="s">
         <v>70</v>
@@ -3031,10 +3046,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G129" t="s">
         <v>70</v>
@@ -3045,19 +3060,19 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -3065,10 +3080,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F131" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="G131" t="s">
         <v>70</v>
@@ -3079,16 +3094,16 @@
         <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E132" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F132" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G132" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -3096,19 +3111,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G133" t="s">
         <v>70</v>
@@ -3119,13 +3134,13 @@
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G134" t="s">
         <v>70</v>
@@ -3136,19 +3151,19 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D135" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E135" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F135" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G135" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -3156,13 +3171,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -3180,7 +3195,7 @@
         <v>136</v>
       </c>
       <c r="D137" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
@@ -3198,13 +3213,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -3221,7 +3236,7 @@
         <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E139" t="s">
         <v>18</v>
@@ -3238,13 +3253,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -3261,7 +3276,7 @@
         <v>140</v>
       </c>
       <c r="D141" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E141" t="s">
         <v>18</v>
@@ -3278,19 +3293,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F142" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G142" t="s">
         <v>70</v>
@@ -3301,13 +3316,13 @@
         <v>142</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E143" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F143" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G143" t="s">
         <v>70</v>
@@ -3318,19 +3333,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E144" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F144" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G144" t="s">
         <v>70</v>
@@ -3341,16 +3356,16 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E145" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F145" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G145" t="s">
         <v>70</v>
@@ -3361,16 +3376,16 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D146" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" t="s">
+        <v>161</v>
+      </c>
+      <c r="F146" t="s">
         <v>155</v>
-      </c>
-      <c r="E146" t="s">
-        <v>156</v>
-      </c>
-      <c r="F146" t="s">
-        <v>150</v>
       </c>
       <c r="G146" t="s">
         <v>70</v>
@@ -3381,16 +3396,16 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D147" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E147" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F147" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G147" t="s">
         <v>70</v>
@@ -3401,16 +3416,16 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D148" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F148" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G148" t="s">
         <v>70</v>
@@ -3421,16 +3436,16 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F149" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G149" t="s">
         <v>70</v>
@@ -3441,16 +3456,16 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F150" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G150" t="s">
         <v>70</v>
@@ -3461,16 +3476,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F151" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G151" t="s">
         <v>70</v>
@@ -3481,16 +3496,16 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F152" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G152" t="s">
         <v>70</v>
@@ -3501,16 +3516,16 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F153" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G153" t="s">
         <v>70</v>
@@ -3521,16 +3536,16 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F154" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G154" t="s">
         <v>70</v>
@@ -3541,16 +3556,16 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F155" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G155" t="s">
         <v>70</v>
@@ -3561,16 +3576,16 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F156" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G156" t="s">
         <v>70</v>
@@ -3581,16 +3596,16 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F157" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G157" t="s">
         <v>70</v>
@@ -3601,16 +3616,16 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F158" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G158" t="s">
         <v>70</v>

--- a/account/単体テスト 提出用.xlsx
+++ b/account/単体テスト 提出用.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="897" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1899ABB-0A08-43C9-8ACE-77B7B0F27D11}"/>
+  <xr:revisionPtr revIDLastSave="950" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF1E445-6020-4C31-A0B2-CE29B2A415DD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="193">
   <si>
     <t>NO</t>
   </si>
@@ -81,6 +81,9 @@
     <t>トップ画面</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
     <t>アカウント登録フォーム</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>でる</t>
   </si>
   <si>
+    <t>未入力項目があるとでない</t>
+  </si>
+  <si>
     <t>全角英字を１０文字以内で入力してenter</t>
   </si>
   <si>
@@ -240,9 +246,6 @@
     <t>ラジオボタンだったら○</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>初期値に選択されているものを入力</t>
   </si>
   <si>
@@ -424,6 +427,9 @@
   </si>
   <si>
     <t>入力値の保持をしているかどうか</t>
+  </si>
+  <si>
+    <t>入力値の保持をした状態でアカウント登録画面にいければ○</t>
   </si>
   <si>
     <t>「登録する」をクリック</t>
@@ -701,6 +707,9 @@
   </si>
   <si>
     <t>住所（番地）のデータが格納されているか</t>
+  </si>
+  <si>
+    <t>追加項目</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D114" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1139,7 +1148,8 @@
     <col min="5" max="5" width="84.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5" customWidth="1"/>
     <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1201,22 +1211,40 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1224,19 +1252,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1244,13 +1281,22 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1258,13 +1304,25 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1272,13 +1330,25 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1286,13 +1356,25 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1300,13 +1382,25 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1314,13 +1408,25 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1328,13 +1434,25 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1342,13 +1460,25 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1356,13 +1486,22 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1370,13 +1509,22 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1384,13 +1532,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1398,703 +1555,1096 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J44" t="s">
         <v>29</v>
       </c>
-      <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="1">
+        <v>45062</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2102,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2116,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2130,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2144,13 +2694,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2158,13 +2708,13 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2172,13 +2722,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2186,13 +2736,13 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2200,13 +2750,13 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2214,13 +2764,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2228,13 +2778,13 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2242,13 +2792,13 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2256,16 +2806,16 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2273,13 +2823,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2287,13 +2837,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2301,13 +2851,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2315,13 +2865,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2329,16 +2879,16 @@
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2346,13 +2896,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2360,13 +2910,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2374,13 +2924,13 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2388,13 +2938,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2402,13 +2952,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2416,13 +2966,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2430,13 +2980,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2444,13 +2994,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2458,13 +3008,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2472,13 +3022,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2486,13 +3036,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2500,16 +3050,16 @@
         <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2517,13 +3067,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2531,13 +3081,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2545,13 +3095,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2559,13 +3109,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2573,16 +3123,16 @@
         <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2590,16 +3140,16 @@
         <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2607,16 +3157,16 @@
         <v>99</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2624,13 +3174,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2638,13 +3188,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2652,13 +3202,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2666,13 +3216,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2680,13 +3230,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2694,13 +3244,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2708,13 +3258,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2722,13 +3272,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2736,13 +3286,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2750,16 +3300,16 @@
         <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2767,16 +3317,16 @@
         <v>110</v>
       </c>
       <c r="D111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2784,16 +3334,16 @@
         <v>111</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2801,13 +3351,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2815,13 +3365,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2829,13 +3379,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2843,13 +3393,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -2857,13 +3407,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2871,13 +3421,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -2885,13 +3435,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -2899,13 +3449,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2913,13 +3463,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G121" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2927,16 +3477,16 @@
         <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F122" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -2944,13 +3494,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F123" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G123" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -2958,13 +3508,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F124" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G124" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2972,13 +3522,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F125" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G125" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -2986,19 +3536,19 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D126" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E126" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G126" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3006,16 +3556,16 @@
         <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G127" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14.25">
@@ -3023,22 +3573,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G128" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -3046,13 +3596,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G129" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -3060,13 +3610,13 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -3080,13 +3630,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F131" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G131" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -3094,16 +3644,16 @@
         <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G132" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -3111,22 +3661,22 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F133" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G133" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25">
@@ -3134,16 +3684,16 @@
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G134" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -3151,19 +3701,19 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -3171,13 +3721,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -3195,16 +3745,16 @@
         <v>136</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
         <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I137" s="1"/>
     </row>
@@ -3213,13 +3763,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -3236,16 +3786,16 @@
         <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F139" t="s">
         <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -3253,13 +3803,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -3276,16 +3826,16 @@
         <v>140</v>
       </c>
       <c r="D141" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -3293,22 +3843,22 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G142" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -3316,16 +3866,16 @@
         <v>142</v>
       </c>
       <c r="D143" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" t="s">
         <v>149</v>
       </c>
-      <c r="E143" t="s">
-        <v>147</v>
-      </c>
       <c r="F143" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G143" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -3333,22 +3883,22 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E144" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F144" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G144" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3356,19 +3906,19 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D145" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145" t="s">
+        <v>160</v>
+      </c>
+      <c r="F145" t="s">
         <v>157</v>
       </c>
-      <c r="E145" t="s">
-        <v>158</v>
-      </c>
-      <c r="F145" t="s">
-        <v>155</v>
-      </c>
       <c r="G145" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3376,19 +3926,19 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D146" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E146" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F146" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G146" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3396,19 +3946,19 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E147" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F147" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G147" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3416,19 +3966,19 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E148" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F148" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G148" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3436,19 +3986,19 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E149" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F149" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G149" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
@@ -3456,19 +4006,19 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F150" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G150" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
@@ -3476,19 +4026,19 @@
         <v>150</v>
       </c>
       <c r="C151" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E151" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F151" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G151" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="14.25">
@@ -3496,19 +4046,19 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F152" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G152" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="14.25">
@@ -3516,19 +4066,19 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F153" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G153" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
@@ -3536,19 +4086,19 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F154" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G154" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
@@ -3556,19 +4106,19 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F155" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G155" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
@@ -3576,19 +4126,19 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F156" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G156" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
@@ -3596,19 +4146,19 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F157" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G157" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
@@ -3616,22 +4166,25 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F158" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G158" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
+      <c r="A159" t="s">
+        <v>192</v>
+      </c>
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:7" ht="14.25">

--- a/account/単体テスト 提出用.xlsx
+++ b/account/単体テスト 提出用.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="950" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF1E445-6020-4C31-A0B2-CE29B2A415DD}"/>
+  <xr:revisionPtr revIDLastSave="1066" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74119DD8-7C91-49BE-A594-259E7A6E241F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="201">
   <si>
     <t>NO</t>
   </si>
@@ -51,7 +51,7 @@
     <t>期待する動作</t>
   </si>
   <si>
-    <t>結果</t>
+    <t>結果(期待する結果と違う場合赤字）</t>
   </si>
   <si>
     <t>確認日付</t>
@@ -171,6 +171,9 @@
     <t>カナ（姓）※全角カタカナのみ可</t>
   </si>
   <si>
+    <t>未入力なしでもでない</t>
+  </si>
+  <si>
     <t>カナ（名）※全角カタカナのみ可</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
     <t>パスワード※半角英数字のみ入力可</t>
   </si>
   <si>
+    <t>入力不可</t>
+  </si>
+  <si>
     <t>⚫︎で表示されているかどうか</t>
   </si>
   <si>
@@ -252,6 +258,9 @@
     <t>男だったら男、女だったら女と結果に入力</t>
   </si>
   <si>
+    <t>男だったら男、女だったら女と表示される</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
@@ -378,7 +387,7 @@
     <t>ボタンアクション</t>
   </si>
   <si>
-    <t>確認するをクリック</t>
+    <t>「確認する」をクリック</t>
   </si>
   <si>
     <t>全未入力状態で「確認する」をクリック</t>
@@ -414,6 +423,9 @@
     <t>項目すべて記載されていれば○</t>
   </si>
   <si>
+    <t>住所（番地）以外未入力状態でも遷移する</t>
+  </si>
+  <si>
     <t>指定文字以外の記述で通っていないかどうかを確認する</t>
   </si>
   <si>
@@ -445,6 +457,9 @@
   </si>
   <si>
     <t>登録が完了しました。と表示されれば○</t>
+  </si>
+  <si>
+    <t>未入力項目があればエラーで登録完了できない</t>
   </si>
   <si>
     <t>エラー時の表示文字</t>
@@ -565,12 +580,18 @@
     <t>TOPページ（http://localhost/account/index.html）</t>
   </si>
   <si>
+    <t>TOPページ</t>
+  </si>
+  <si>
     <t>トップ画面表示</t>
   </si>
   <si>
     <t>ヘッダーの遷移先を確認</t>
   </si>
   <si>
+    <t>ヘッダーなし</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
@@ -710,13 +731,16 @@
   </si>
   <si>
     <t>追加項目</t>
+  </si>
+  <si>
+    <t>PW以外未入力でもとんでしまう/エラー文字はでる</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +812,20 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -810,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -819,6 +857,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1136,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:K51"/>
+    <sheetView tabSelected="1" topLeftCell="E122" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1312,7 +1352,7 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="1">
@@ -1338,7 +1378,7 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="1">
@@ -1364,7 +1404,7 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="1">
@@ -1390,7 +1430,7 @@
       <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="1">
@@ -1416,7 +1456,7 @@
       <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1">
@@ -1442,7 +1482,7 @@
       <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="1">
@@ -1468,7 +1508,7 @@
       <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="1">
@@ -1612,7 +1652,7 @@
       <c r="G18" t="s">
         <v>28</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="1">
@@ -1638,7 +1678,7 @@
       <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="1">
@@ -1664,7 +1704,7 @@
       <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="1">
@@ -1690,7 +1730,7 @@
       <c r="G21" t="s">
         <v>28</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="1">
@@ -1716,7 +1756,7 @@
       <c r="G22" t="s">
         <v>28</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="1">
@@ -1742,7 +1782,7 @@
       <c r="G23" t="s">
         <v>28</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="1">
@@ -1768,7 +1808,7 @@
       <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="1">
@@ -1866,14 +1906,14 @@
       <c r="G28" t="s">
         <v>28</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="1">
         <v>45062</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
@@ -1892,14 +1932,14 @@
       <c r="G29" t="s">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="1">
         <v>45062</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -1918,14 +1958,14 @@
       <c r="G30" t="s">
         <v>28</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="1">
         <v>45062</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -1944,14 +1984,14 @@
       <c r="G31" t="s">
         <v>28</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="1">
         <v>45062</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -1970,14 +2010,14 @@
       <c r="G32" t="s">
         <v>28</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I32" s="1">
         <v>45062</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
@@ -1996,14 +2036,14 @@
       <c r="G33" t="s">
         <v>28</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I33" s="1">
         <v>45062</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -2022,14 +2062,14 @@
       <c r="G34" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="1">
         <v>45062</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -2048,14 +2088,14 @@
       <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="1">
         <v>45062</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -2074,11 +2114,14 @@
       <c r="G36" t="s">
         <v>25</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>45062</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -2103,6 +2146,7 @@
       <c r="I37" s="1">
         <v>45062</v>
       </c>
+      <c r="J37" s="9"/>
       <c r="K37" t="s">
         <v>17</v>
       </c>
@@ -2126,6 +2170,7 @@
       <c r="I38" s="1">
         <v>45062</v>
       </c>
+      <c r="J38" s="9"/>
       <c r="K38" t="s">
         <v>17</v>
       </c>
@@ -2149,6 +2194,7 @@
       <c r="I39" s="1">
         <v>45062</v>
       </c>
+      <c r="J39" s="9"/>
       <c r="K39" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
@@ -2169,14 +2215,14 @@
       <c r="G40" t="s">
         <v>28</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="1">
         <v>45062</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -2195,14 +2241,14 @@
       <c r="G41" t="s">
         <v>28</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I41" s="1">
         <v>45062</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -2221,14 +2267,14 @@
       <c r="G42" t="s">
         <v>28</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I42" s="1">
         <v>45062</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
@@ -2247,14 +2293,14 @@
       <c r="G43" t="s">
         <v>28</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="1">
         <v>45062</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -2273,14 +2319,14 @@
       <c r="G44" t="s">
         <v>28</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I44" s="1">
         <v>45062</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
@@ -2299,14 +2345,14 @@
       <c r="G45" t="s">
         <v>28</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="1">
         <v>45062</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2325,14 +2371,14 @@
       <c r="G46" t="s">
         <v>28</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I46" s="1">
         <v>45062</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2351,14 +2397,14 @@
       <c r="G47" t="s">
         <v>28</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="1">
         <v>45062</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -2377,11 +2423,14 @@
       <c r="G48" t="s">
         <v>25</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I48" s="1">
         <v>45062</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -2406,6 +2455,7 @@
       <c r="I49" s="1">
         <v>45062</v>
       </c>
+      <c r="J49" s="9"/>
       <c r="K49" t="s">
         <v>17</v>
       </c>
@@ -2429,6 +2479,7 @@
       <c r="I50" s="1">
         <v>45062</v>
       </c>
+      <c r="J50" s="9"/>
       <c r="K50" t="s">
         <v>17</v>
       </c>
@@ -2452,6 +2503,7 @@
       <c r="I51" s="1">
         <v>45062</v>
       </c>
+      <c r="J51" s="9"/>
       <c r="K51" t="s">
         <v>17</v>
       </c>
@@ -2461,16 +2513,25 @@
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
         <v>24</v>
       </c>
       <c r="G52" t="s">
         <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2478,16 +2539,25 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
       </c>
       <c r="G53" t="s">
         <v>28</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2495,13 +2565,19 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
         <v>24</v>
       </c>
       <c r="G54" t="s">
         <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="1">
+        <v>45063</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2509,13 +2585,22 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s">
         <v>24</v>
       </c>
       <c r="G55" t="s">
         <v>28</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2523,13 +2608,19 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
         <v>24</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="1">
+        <v>45063</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2537,13 +2628,22 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
         <v>24</v>
       </c>
       <c r="G57" t="s">
         <v>28</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2551,13 +2651,22 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
         <v>24</v>
       </c>
       <c r="G58" t="s">
         <v>28</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2565,13 +2674,22 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
         <v>24</v>
       </c>
       <c r="G59" t="s">
         <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J59" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2579,13 +2697,22 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
         <v>24</v>
       </c>
       <c r="G60" t="s">
         <v>28</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J60" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2601,6 +2728,12 @@
       <c r="G61" t="s">
         <v>38</v>
       </c>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
@@ -2615,19 +2748,31 @@
       <c r="G62" t="s">
         <v>41</v>
       </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1">
+        <v>45063</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2635,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -2646,8 +2791,14 @@
       <c r="G64" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2660,8 +2811,14 @@
       <c r="G65" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2674,8 +2831,11 @@
       <c r="G66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2688,8 +2848,14 @@
       <c r="G67" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2702,8 +2868,11 @@
       <c r="G68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2716,8 +2885,14 @@
       <c r="G69" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2730,8 +2905,17 @@
       <c r="G70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2744,8 +2928,14 @@
       <c r="G71" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2758,8 +2948,14 @@
       <c r="G72" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2767,13 +2963,19 @@
         <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H73" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2786,8 +2988,14 @@
       <c r="G74" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2800,89 +3008,125 @@
       <c r="G75" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F81" t="s">
         <v>24</v>
@@ -2890,13 +3134,22 @@
       <c r="G81" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F82" t="s">
         <v>24</v>
@@ -2904,13 +3157,22 @@
       <c r="G82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F83" t="s">
         <v>24</v>
@@ -2918,13 +3180,22 @@
       <c r="G83" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F84" t="s">
         <v>24</v>
@@ -2932,13 +3203,22 @@
       <c r="G84" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F85" t="s">
         <v>24</v>
@@ -2946,13 +3226,19 @@
       <c r="G85" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F86" t="s">
         <v>24</v>
@@ -2960,13 +3246,22 @@
       <c r="G86" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F87" t="s">
         <v>24</v>
@@ -2974,13 +3269,22 @@
       <c r="G87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s">
         <v>24</v>
@@ -2988,13 +3292,22 @@
       <c r="G88" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s">
         <v>24</v>
@@ -3002,8 +3315,17 @@
       <c r="G89" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3016,8 +3338,14 @@
       <c r="G90" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3030,100 +3358,142 @@
       <c r="G91" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>90</v>
+      </c>
+      <c r="H92" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H95" t="s">
+        <v>98</v>
+      </c>
+      <c r="I95" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
         <v>23</v>
@@ -3134,13 +3504,19 @@
       <c r="G98" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
@@ -3151,13 +3527,19 @@
       <c r="G99" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
         <v>27</v>
@@ -3168,8 +3550,17 @@
       <c r="G100" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3182,8 +3573,17 @@
       <c r="G101" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3196,8 +3596,14 @@
       <c r="G102" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3210,13 +3616,22 @@
       <c r="G103" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F104" t="s">
         <v>24</v>
@@ -3224,8 +3639,14 @@
       <c r="G104" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3238,13 +3659,22 @@
       <c r="G105" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
         <v>24</v>
@@ -3252,8 +3682,17 @@
       <c r="G106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3266,8 +3705,14 @@
       <c r="G107" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3280,8 +3725,14 @@
       <c r="G108" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3294,16 +3745,22 @@
       <c r="G109" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="s">
+        <v>44</v>
+      </c>
+      <c r="I109" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
         <v>24</v>
@@ -3311,16 +3768,22 @@
       <c r="G110" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="D111" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F111" t="s">
         <v>24</v>
@@ -3328,16 +3791,22 @@
       <c r="G111" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F112" t="s">
         <v>24</v>
@@ -3345,13 +3814,22 @@
       <c r="G112" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113" t="s">
         <v>24</v>
@@ -3359,13 +3837,22 @@
       <c r="G113" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114" t="s">
         <v>24</v>
@@ -3373,13 +3860,19 @@
       <c r="G114" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115" t="s">
         <v>24</v>
@@ -3387,13 +3880,22 @@
       <c r="G115" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F116" t="s">
         <v>24</v>
@@ -3401,13 +3903,19 @@
       <c r="G116" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F117" t="s">
         <v>24</v>
@@ -3415,13 +3923,22 @@
       <c r="G117" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F118" t="s">
         <v>24</v>
@@ -3429,8 +3946,14 @@
       <c r="G118" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3443,8 +3966,14 @@
       <c r="G119" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3457,166 +3986,226 @@
       <c r="G120" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G121" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="H121" t="s">
+        <v>62</v>
+      </c>
+      <c r="I121" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E122" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F122" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G122" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F123" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F124" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G124" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F125" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G125" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H125" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E126" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F126" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G126" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>122</v>
+      </c>
+      <c r="H126" t="s">
+        <v>122</v>
+      </c>
+      <c r="I126" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F127" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G127" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="14.25">
+        <v>125</v>
+      </c>
+      <c r="H127" t="s">
+        <v>125</v>
+      </c>
+      <c r="I127" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E128" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G128" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="H128" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I128" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F129" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G129" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D130" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -3624,110 +4213,149 @@
       <c r="G130" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G131" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E132" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F132" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="H132" t="s">
+        <v>139</v>
+      </c>
+      <c r="I132" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E133" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G133" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="14.25">
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J133" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G134" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E135" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G135" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="H135" t="s">
+        <v>149</v>
+      </c>
+      <c r="I135" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -3738,14 +4366,19 @@
       <c r="G136" t="s">
         <v>16</v>
       </c>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="D137" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
@@ -3756,20 +4389,25 @@
       <c r="G137" t="s">
         <v>20</v>
       </c>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -3780,13 +4418,19 @@
       <c r="G138" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="H138" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I138" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -3797,19 +4441,25 @@
       <c r="G139" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="H139" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I139" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -3820,13 +4470,19 @@
       <c r="G140" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="D141" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -3837,357 +4493,408 @@
       <c r="G141" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E142" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E143" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G143" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D144" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E144" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="I144" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E145" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F145" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G145" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="I145" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E146" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F146" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="I146" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="C147" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" t="s">
+        <v>172</v>
+      </c>
+      <c r="E147" t="s">
+        <v>173</v>
+      </c>
+      <c r="F147" t="s">
         <v>164</v>
       </c>
-      <c r="D147" t="s">
-        <v>165</v>
-      </c>
-      <c r="E147" t="s">
-        <v>166</v>
-      </c>
-      <c r="F147" t="s">
-        <v>157</v>
-      </c>
       <c r="G147" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="I147" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E148" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F148" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G148" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="I148" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D149" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E149" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F149" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="14.25">
+      <c r="I149" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="14.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F150" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="14.25">
+      <c r="I150" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="14.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F151" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G151" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="14.25">
+      <c r="I151" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="14.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F152" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G152" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="14.25">
+      <c r="I152" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="14.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F153" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G153" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="14.25">
+      <c r="I153" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="14.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F154" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G154" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14.25">
+    <row r="155" spans="1:9" ht="14.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F155" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G155" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14.25">
+    <row r="156" spans="1:9" ht="14.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F156" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G156" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14.25">
+    <row r="157" spans="1:9" ht="14.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F157" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G157" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="14.25">
+    <row r="158" spans="1:9" ht="14.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F158" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G158" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="14.25">
+    <row r="159" spans="1:9" ht="14.25">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:7" ht="14.25">
+    <row r="160" spans="1:9" ht="14.25">
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
       <c r="D160" s="5"/>
     </row>
     <row r="161" spans="4:4" ht="14.25">

--- a/account/単体テスト 提出用.xlsx
+++ b/account/単体テスト 提出用.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1066" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74119DD8-7C91-49BE-A594-259E7A6E241F}"/>
+  <xr:revisionPtr revIDLastSave="1176" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AD1FAF-1A95-42BC-B86F-2CAE7D9B83C2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="248">
   <si>
     <t>NO</t>
   </si>
@@ -730,10 +730,151 @@
     <t>住所（番地）のデータが格納されているか</t>
   </si>
   <si>
-    <t>追加項目</t>
-  </si>
-  <si>
-    <t>PW以外未入力でもとんでしまう/エラー文字はでる</t>
+    <t>予想外のエラー</t>
+  </si>
+  <si>
+    <t>番地が入力されていればそのほか未入力でもとんでしまう可能性有り/ただしエラー文字はでる/送信しても登録完了は「エラー」で完了はできない</t>
+  </si>
+  <si>
+    <t>指定文字は未入力項目がない状態でエラーメッセージがでる→それ以外のエラーはカナ（姓名）が全角カタカナ以外でも通ってしまう</t>
+  </si>
+  <si>
+    <t>上記を検証</t>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>未入力状態での遷移</t>
+  </si>
+  <si>
+    <t>名前（姓）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>通ればエラーと入力</t>
+  </si>
+  <si>
+    <t>名前（名）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>メールアドレスのみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>パスワードのみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>郵便番号のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（都道府県）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>通らない</t>
+  </si>
+  <si>
+    <t>未入力が一つでもある状態では登録完了にならない</t>
+  </si>
+  <si>
+    <t>名前（姓）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>エラーメッセージが出れば○</t>
+  </si>
+  <si>
+    <t>名前（名）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>メールアドレスのみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>パスワードのみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>郵便番号のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（都道府県）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）のみ未入力で「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）（名）で通ってしまう文字を検証</t>
+  </si>
+  <si>
+    <t>全項目入力状態で常用漢字を１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>通ればエラーと入力/エラーメッセージが表示されれば○</t>
+  </si>
+  <si>
+    <t>※全角カタカナのみ可</t>
+  </si>
+  <si>
+    <t>全項目入力状態でひらがなを１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で半角英字を１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で全角英字を１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で半角数字を１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で全角数字を１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で記号・スペース10文字以内入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で半角カタカナを１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>全項目入力状態で全角カタカナを１０文字以内で入力してenter</t>
+  </si>
+  <si>
+    <t>通れば○/エラーメッセージが表示されればエラー</t>
+  </si>
+  <si>
+    <t>カナ（姓）（名）に指定文字以外を入力して登録完了を検証</t>
+  </si>
+  <si>
+    <t>指定文字以外を入力して「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面の文字を入力</t>
+  </si>
+  <si>
+    <t>登録できませんでした</t>
+  </si>
+  <si>
+    <t>登録が完了しました。</t>
+  </si>
+  <si>
+    <t>入力フォームのパターンが正しくない可能性有り</t>
   </si>
 </sst>
 </file>
@@ -1174,17 +1315,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E122" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" topLeftCell="F168" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5" customWidth="1"/>
     <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
@@ -4574,6 +4715,9 @@
       <c r="G144" t="s">
         <v>17</v>
       </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
       <c r="I144" s="1">
         <v>45063</v>
       </c>
@@ -4597,6 +4741,9 @@
       <c r="G145" t="s">
         <v>17</v>
       </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
       <c r="I145" s="1">
         <v>45063</v>
       </c>
@@ -4620,6 +4767,9 @@
       <c r="G146" t="s">
         <v>17</v>
       </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
       <c r="I146" s="1">
         <v>45063</v>
       </c>
@@ -4643,6 +4793,9 @@
       <c r="G147" t="s">
         <v>17</v>
       </c>
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
       <c r="I147" s="1">
         <v>45063</v>
       </c>
@@ -4666,6 +4819,9 @@
       <c r="G148" t="s">
         <v>17</v>
       </c>
+      <c r="H148" t="s">
+        <v>17</v>
+      </c>
       <c r="I148" s="1">
         <v>45063</v>
       </c>
@@ -4689,6 +4845,9 @@
       <c r="G149" t="s">
         <v>17</v>
       </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
       <c r="I149" s="1">
         <v>45063</v>
       </c>
@@ -4712,6 +4871,9 @@
       <c r="G150" t="s">
         <v>17</v>
       </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
       <c r="I150" s="1">
         <v>45063</v>
       </c>
@@ -4735,6 +4897,9 @@
       <c r="G151" t="s">
         <v>17</v>
       </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
       <c r="I151" s="1">
         <v>45063</v>
       </c>
@@ -4758,6 +4923,9 @@
       <c r="G152" t="s">
         <v>17</v>
       </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
       <c r="I152" s="1">
         <v>45063</v>
       </c>
@@ -4781,6 +4949,9 @@
       <c r="G153" t="s">
         <v>17</v>
       </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
       <c r="I153" s="1">
         <v>45063</v>
       </c>
@@ -4804,6 +4975,12 @@
       <c r="G154" t="s">
         <v>17</v>
       </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="14.25">
       <c r="A155">
@@ -4824,6 +5001,12 @@
       <c r="G155" t="s">
         <v>17</v>
       </c>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="14.25">
       <c r="A156">
@@ -4844,6 +5027,12 @@
       <c r="G156" t="s">
         <v>17</v>
       </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="14.25">
       <c r="A157">
@@ -4864,6 +5053,12 @@
       <c r="G157" t="s">
         <v>17</v>
       </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="14.25">
       <c r="A158">
@@ -4884,6 +5079,12 @@
       <c r="G158" t="s">
         <v>17</v>
       </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="1">
+        <v>45063</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="14.25">
       <c r="A159" t="s">
@@ -4892,16 +5093,601 @@
       <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:9" ht="14.25">
-      <c r="B160" t="s">
+      <c r="A160" t="s">
         <v>200</v>
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="4:4" ht="14.25">
+    <row r="161" spans="1:9" ht="14.25">
+      <c r="A161" t="s">
+        <v>201</v>
+      </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="4:4" ht="14.25">
+    <row r="162" spans="1:9" ht="14.25">
       <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>202</v>
+      </c>
+      <c r="G163" t="s">
+        <v>203</v>
+      </c>
+      <c r="H163" t="s">
+        <v>203</v>
+      </c>
+      <c r="I163" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="14.25">
+      <c r="B164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" t="s">
+        <v>204</v>
+      </c>
+      <c r="E164" t="s">
+        <v>205</v>
+      </c>
+      <c r="F164" t="s">
+        <v>206</v>
+      </c>
+      <c r="G164" t="s">
+        <v>203</v>
+      </c>
+      <c r="H164" t="s">
+        <v>203</v>
+      </c>
+      <c r="I164" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="E165" t="s">
+        <v>207</v>
+      </c>
+      <c r="F165" t="s">
+        <v>206</v>
+      </c>
+      <c r="G165" t="s">
+        <v>203</v>
+      </c>
+      <c r="H165" t="s">
+        <v>203</v>
+      </c>
+      <c r="I165" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="E166" t="s">
+        <v>208</v>
+      </c>
+      <c r="F166" t="s">
+        <v>206</v>
+      </c>
+      <c r="G166" t="s">
+        <v>203</v>
+      </c>
+      <c r="H166" t="s">
+        <v>203</v>
+      </c>
+      <c r="I166" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="E167" t="s">
+        <v>209</v>
+      </c>
+      <c r="F167" t="s">
+        <v>206</v>
+      </c>
+      <c r="G167" t="s">
+        <v>203</v>
+      </c>
+      <c r="H167" t="s">
+        <v>203</v>
+      </c>
+      <c r="I167" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="E168" t="s">
+        <v>210</v>
+      </c>
+      <c r="F168" t="s">
+        <v>206</v>
+      </c>
+      <c r="G168" t="s">
+        <v>203</v>
+      </c>
+      <c r="H168" t="s">
+        <v>203</v>
+      </c>
+      <c r="I168" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="E169" t="s">
+        <v>211</v>
+      </c>
+      <c r="F169" t="s">
+        <v>206</v>
+      </c>
+      <c r="G169" t="s">
+        <v>203</v>
+      </c>
+      <c r="H169" t="s">
+        <v>203</v>
+      </c>
+      <c r="I169" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="E170" t="s">
+        <v>212</v>
+      </c>
+      <c r="F170" t="s">
+        <v>206</v>
+      </c>
+      <c r="G170" t="s">
+        <v>203</v>
+      </c>
+      <c r="H170" t="s">
+        <v>203</v>
+      </c>
+      <c r="I170" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="E171" t="s">
+        <v>213</v>
+      </c>
+      <c r="F171" t="s">
+        <v>206</v>
+      </c>
+      <c r="G171" t="s">
+        <v>203</v>
+      </c>
+      <c r="H171" t="s">
+        <v>203</v>
+      </c>
+      <c r="I171" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="E172" t="s">
+        <v>214</v>
+      </c>
+      <c r="F172" t="s">
+        <v>206</v>
+      </c>
+      <c r="G172" t="s">
+        <v>203</v>
+      </c>
+      <c r="H172" t="s">
+        <v>203</v>
+      </c>
+      <c r="I172" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="E173" t="s">
+        <v>205</v>
+      </c>
+      <c r="F173" t="s">
+        <v>206</v>
+      </c>
+      <c r="G173" t="s">
+        <v>203</v>
+      </c>
+      <c r="H173" t="s">
+        <v>203</v>
+      </c>
+      <c r="I173" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="E174" t="s">
+        <v>215</v>
+      </c>
+      <c r="F174" t="s">
+        <v>206</v>
+      </c>
+      <c r="G174" t="s">
+        <v>216</v>
+      </c>
+      <c r="H174" t="s">
+        <v>216</v>
+      </c>
+      <c r="I174" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="D175" t="s">
+        <v>217</v>
+      </c>
+      <c r="E175" t="s">
+        <v>218</v>
+      </c>
+      <c r="F175" t="s">
+        <v>219</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="E176" t="s">
+        <v>220</v>
+      </c>
+      <c r="F176" t="s">
+        <v>219</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="177" spans="4:9">
+      <c r="E177" t="s">
+        <v>221</v>
+      </c>
+      <c r="F177" t="s">
+        <v>219</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="178" spans="4:9">
+      <c r="E178" t="s">
+        <v>222</v>
+      </c>
+      <c r="F178" t="s">
+        <v>219</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="179" spans="4:9">
+      <c r="E179" t="s">
+        <v>223</v>
+      </c>
+      <c r="F179" t="s">
+        <v>219</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I179" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="180" spans="4:9">
+      <c r="E180" t="s">
+        <v>224</v>
+      </c>
+      <c r="F180" t="s">
+        <v>219</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I180" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="181" spans="4:9">
+      <c r="E181" t="s">
+        <v>225</v>
+      </c>
+      <c r="F181" t="s">
+        <v>219</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="182" spans="4:9">
+      <c r="E182" t="s">
+        <v>226</v>
+      </c>
+      <c r="F182" t="s">
+        <v>219</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+      <c r="H182" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="183" spans="4:9">
+      <c r="E183" t="s">
+        <v>227</v>
+      </c>
+      <c r="F183" t="s">
+        <v>219</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="184" spans="4:9">
+      <c r="E184" t="s">
+        <v>218</v>
+      </c>
+      <c r="F184" t="s">
+        <v>219</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="185" spans="4:9">
+      <c r="E185" t="s">
+        <v>228</v>
+      </c>
+      <c r="F185" t="s">
+        <v>219</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="186" spans="4:9">
+      <c r="D186" t="s">
+        <v>229</v>
+      </c>
+      <c r="E186" t="s">
+        <v>230</v>
+      </c>
+      <c r="F186" t="s">
+        <v>231</v>
+      </c>
+      <c r="G186" t="s">
+        <v>203</v>
+      </c>
+      <c r="H186" t="s">
+        <v>203</v>
+      </c>
+      <c r="I186" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="187" spans="4:9">
+      <c r="D187" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E187" t="s">
+        <v>233</v>
+      </c>
+      <c r="F187" t="s">
+        <v>231</v>
+      </c>
+      <c r="G187" t="s">
+        <v>203</v>
+      </c>
+      <c r="H187" t="s">
+        <v>203</v>
+      </c>
+      <c r="I187" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="188" spans="4:9">
+      <c r="E188" t="s">
+        <v>234</v>
+      </c>
+      <c r="F188" t="s">
+        <v>231</v>
+      </c>
+      <c r="G188" t="s">
+        <v>203</v>
+      </c>
+      <c r="H188" t="s">
+        <v>203</v>
+      </c>
+      <c r="I188" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="189" spans="4:9">
+      <c r="E189" t="s">
+        <v>235</v>
+      </c>
+      <c r="F189" t="s">
+        <v>231</v>
+      </c>
+      <c r="G189" t="s">
+        <v>203</v>
+      </c>
+      <c r="H189" t="s">
+        <v>203</v>
+      </c>
+      <c r="I189" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="190" spans="4:9">
+      <c r="E190" t="s">
+        <v>236</v>
+      </c>
+      <c r="F190" t="s">
+        <v>231</v>
+      </c>
+      <c r="G190" t="s">
+        <v>203</v>
+      </c>
+      <c r="H190" t="s">
+        <v>203</v>
+      </c>
+      <c r="I190" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="191" spans="4:9">
+      <c r="E191" t="s">
+        <v>237</v>
+      </c>
+      <c r="F191" t="s">
+        <v>231</v>
+      </c>
+      <c r="G191" t="s">
+        <v>203</v>
+      </c>
+      <c r="H191" t="s">
+        <v>203</v>
+      </c>
+      <c r="I191" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="192" spans="4:9">
+      <c r="E192" t="s">
+        <v>238</v>
+      </c>
+      <c r="F192" t="s">
+        <v>231</v>
+      </c>
+      <c r="G192" t="s">
+        <v>203</v>
+      </c>
+      <c r="H192" t="s">
+        <v>203</v>
+      </c>
+      <c r="I192" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="193" spans="4:10">
+      <c r="E193" t="s">
+        <v>239</v>
+      </c>
+      <c r="F193" t="s">
+        <v>231</v>
+      </c>
+      <c r="G193" t="s">
+        <v>203</v>
+      </c>
+      <c r="H193" t="s">
+        <v>203</v>
+      </c>
+      <c r="I193" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="194" spans="4:10">
+      <c r="E194" t="s">
+        <v>240</v>
+      </c>
+      <c r="F194" t="s">
+        <v>241</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" s="1">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="195" spans="4:10">
+      <c r="D195" t="s">
+        <v>242</v>
+      </c>
+      <c r="E195" t="s">
+        <v>243</v>
+      </c>
+      <c r="F195" t="s">
+        <v>244</v>
+      </c>
+      <c r="G195" t="s">
+        <v>245</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I195" s="1">
+        <v>45063</v>
+      </c>
+      <c r="J195" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/account/単体テスト 提出用.xlsx
+++ b/account/単体テスト 提出用.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26508"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1176" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9AD1FAF-1A95-42BC-B86F-2CAE7D9B83C2}"/>
+  <xr:revisionPtr revIDLastSave="1570" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F82D012-239B-4795-A261-C5BC78367082}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="375">
   <si>
     <t>NO</t>
   </si>
@@ -742,18 +743,18 @@
     <t>上記を検証</t>
   </si>
   <si>
+    <t>未入力状態での遷移</t>
+  </si>
+  <si>
+    <t>名前（姓）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>通ればエラーと入力</t>
+  </si>
+  <si>
     <t>エラー</t>
   </si>
   <si>
-    <t>未入力状態での遷移</t>
-  </si>
-  <si>
-    <t>名前（姓）のみ未入力で「確認する」をクリック</t>
-  </si>
-  <si>
-    <t>通ればエラーと入力</t>
-  </si>
-  <si>
     <t>名前（名）のみ未入力で「確認する」をクリック</t>
   </si>
   <si>
@@ -829,6 +830,9 @@
     <t>通ればエラーと入力/エラーメッセージが表示されれば○</t>
   </si>
   <si>
+    <t>入力フォームのパターンが正しくない可能性有り</t>
+  </si>
+  <si>
     <t>※全角カタカナのみ可</t>
   </si>
   <si>
@@ -874,14 +878,528 @@
     <t>登録が完了しました。</t>
   </si>
   <si>
-    <t>入力フォームのパターンが正しくない可能性有り</t>
+    <t>テスト項目</t>
+  </si>
+  <si>
+    <t>URL→http://localhost/account/index.html→ヘッダー（アカウント登録）
+→登録確認→登録完了</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り全項目指定文字で入力して登録完了させる</t>
+  </si>
+  <si>
+    <t>登録完了しましたが表示され
+MYSQLに各データが登録されるかをみる</t>
+  </si>
+  <si>
+    <t>登録完了しましたが表示され
+MYSQLに登録される</t>
+  </si>
+  <si>
+    <t>未入力で登録に進む</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+全項目未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>どのような結果になるか</t>
+  </si>
+  <si>
+    <t>すべての項目の下に○○が未入力ですと表示され遷移しない（初期値が空白の場合）</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+名前（姓）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+名前（名）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>名前（名）が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+カナ（姓）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+カナ（名）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+メールアドレスのみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>メールアドレスが未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+パスワードのみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>パスワードが未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+郵便番号のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>郵便番号が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+住所（都道府県）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（都道府県）が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>テスト項目の手順でアカウント登録に入り
+住所（番地）のみ未入力で「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）が未入力ですと表示され遷移しない</t>
+  </si>
+  <si>
+    <t>名前（姓）以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>半角英数字を入力で確認へ</t>
+  </si>
+  <si>
+    <t>指定文字のエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>全角英字を入力して確認へ</t>
+  </si>
+  <si>
+    <t>半角数字を入力して確認へ</t>
+  </si>
+  <si>
+    <t>全角数字を入力して確認へ</t>
+  </si>
+  <si>
+    <t>記号・スペースを入力して確認へ</t>
+  </si>
+  <si>
+    <t>半角カタカナを入力して確認へ</t>
+  </si>
+  <si>
+    <t>全角カタカナをを入力して確認へ</t>
+  </si>
+  <si>
+    <t>１０文字以上入力して確認へ</t>
+  </si>
+  <si>
+    <t>11文字以上打つと11文字目から消える</t>
+  </si>
+  <si>
+    <t>名前（名）以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>半角カタカナをを入力して確認へ</t>
+  </si>
+  <si>
+    <t>全角カタカナを入力して確認へ</t>
+  </si>
+  <si>
+    <t>カナ（姓）以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>常用漢字を入力して確認へ</t>
+  </si>
+  <si>
+    <t>ひらがなを入力して確認へ</t>
+  </si>
+  <si>
+    <t>カナ（名）以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>メールアドレス以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>[-]以外の記号を指定文字にまぜて入力して確認へ</t>
+  </si>
+  <si>
+    <t>１00文字以上入力して確認へ</t>
+  </si>
+  <si>
+    <t>１０0文字以上打つと101文字目から消える</t>
+  </si>
+  <si>
+    <t>パスワード以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>10文字以上入力して確認へ</t>
+  </si>
+  <si>
+    <t>性別以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>複数選択できないかを確認</t>
+  </si>
+  <si>
+    <t>複数選択できなければ結果を○</t>
+  </si>
+  <si>
+    <t>男を選択して確認</t>
+  </si>
+  <si>
+    <t>アカウント確認画面で男が表記されていれば○</t>
+  </si>
+  <si>
+    <t>女を選択して確認</t>
+  </si>
+  <si>
+    <t>アカウント確認画面で女が表記されていれば○</t>
+  </si>
+  <si>
+    <t>郵便番号以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>8文字以上入力して確認へ</t>
+  </si>
+  <si>
+    <t>8文字以上打つと8文字目から消える</t>
+  </si>
+  <si>
+    <t>住所（市区町村）以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>１１文字以上打つと１１文字目から消える</t>
+  </si>
+  <si>
+    <t>[-][スペース]以外を指定文字に混ぜて確認へ</t>
+  </si>
+  <si>
+    <t>住所（番地）以外は正常値を入力
+異常値、指定文字以外の入力で登録へ進む</t>
+  </si>
+  <si>
+    <t>１01文字以上打つと１01文字目から消える</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/名前（姓）</t>
+  </si>
+  <si>
+    <t>名前（姓）に指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/名前（名）</t>
+  </si>
+  <si>
+    <t>名前（名）に指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/カナ（姓）</t>
+  </si>
+  <si>
+    <t>カナ（姓）に指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/カナ（名）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/メールアドレス</t>
+  </si>
+  <si>
+    <t>メールアドレスに指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/パスワード</t>
+  </si>
+  <si>
+    <t>パスワードに指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/郵便番号</t>
+  </si>
+  <si>
+    <t>郵便番号に指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>数字以外は入力できない</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/住所（市区町村）</t>
+  </si>
+  <si>
+    <t>住所（市区町村）に指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>指定文字と異常値の混合/住所（番地）</t>
+  </si>
+  <si>
+    <t>住所（番地）に指定文字と異常値を混ぜて入力→確認へ</t>
+  </si>
+  <si>
+    <t>URL→http://localhost/account/index.html→ヘッダー（アカウント登録）
+→登録確認→前に戻る</t>
+  </si>
+  <si>
+    <t>正常値、全項目入力で左記の内容で入力して
+「確認ボタン」→「前に戻る」で入力情報の保持を確認する</t>
+  </si>
+  <si>
+    <t>入力情報を保持して戻れたら○
+そうでなければ状態を入力</t>
+  </si>
+  <si>
+    <t>上記から再び「確認する」→「登録する」</t>
+  </si>
+  <si>
+    <t>戻った状態から、再び「確認する」を
+クリックして「登録する」をクリック</t>
+  </si>
+  <si>
+    <t>登録が完了しました。と表示で○</t>
+  </si>
+  <si>
+    <t>上記から「TOPページに戻る」をクリックする</t>
+  </si>
+  <si>
+    <t>登録完了ページより
+「TOPページに戻る」をクリックする</t>
+  </si>
+  <si>
+    <t>TOPページに戻れば○</t>
+  </si>
+  <si>
+    <t>リンクの遷移/TOPページ/ヘッダー</t>
+  </si>
+  <si>
+    <t>左記の「トップ」をクリック</t>
+  </si>
+  <si>
+    <t>遷移先がTOPページであれば○</t>
+  </si>
+  <si>
+    <t>左記の「アカウント登録フォーム」をクリック</t>
+  </si>
+  <si>
+    <t>遷移先がアカウント登録画面であれば○</t>
+  </si>
+  <si>
+    <t>リンクの遷移/アカウント登録画面/ヘッダー</t>
+  </si>
+  <si>
+    <t>リンクの遷移/登録確認画面/ヘッダー</t>
+  </si>
+  <si>
+    <t>リンクの遷移/登録完了画面/ヘッダー</t>
+  </si>
+  <si>
+    <t>エラーを表示させる</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>regist_complete.phpの11行目
+$pdo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>PDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"mysql:dbname=lesson03;
+host=localhost;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"root"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"root"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">);　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>と変更してアカウント登録を正常値で完了まで行う</t>
+    </r>
+  </si>
+  <si>
+    <t>エラーが発生したため
+アカウント登録できません。
+と表示されれば○</t>
+  </si>
+  <si>
+    <t>MYSQLにデータの格納を確認</t>
+  </si>
+  <si>
+    <t>上記をlesson01にもどして正常値で入力し完了まで行う</t>
+  </si>
+  <si>
+    <t>名前（姓）family_nameが一致で○</t>
+  </si>
+  <si>
+    <t>同じ項目があるものはその項目が終わるまで登録する</t>
+  </si>
+  <si>
+    <t>名前（名）last_nameが一致で○</t>
+  </si>
+  <si>
+    <t>カナ（姓）family_name_kanaが一致で○</t>
+  </si>
+  <si>
+    <t>カナ（名）family_name_kanaが一致で○</t>
+  </si>
+  <si>
+    <t>メールアドレス mailが一致で○</t>
+  </si>
+  <si>
+    <t>パスワードは３回同じものを登録する</t>
+  </si>
+  <si>
+    <t>パスワードがハッシュ化されてpasswordに登録で○</t>
+  </si>
+  <si>
+    <t>１回目と違う文字列が登録されていれば○</t>
+  </si>
+  <si>
+    <t>２回目と違う文字列が登録されていれば○</t>
+  </si>
+  <si>
+    <t>性別　genderが女に選択で１</t>
+  </si>
+  <si>
+    <t>性別　genderが男に選択で０</t>
+  </si>
+  <si>
+    <t>郵便番号 postal_codeが一致で○</t>
+  </si>
+  <si>
+    <t>住所（都道府県）prefectureが一致で○</t>
+  </si>
+  <si>
+    <t>住所（市区町村）address_1が一致で○</t>
+  </si>
+  <si>
+    <t>住所（番地）address_2が一致で○</t>
+  </si>
+  <si>
+    <t>アカウント権限 一般を選択で０</t>
+  </si>
+  <si>
+    <t>アカウント権限 管理者を選択で１</t>
+  </si>
+  <si>
+    <t>削除フラグ delete_flagに1と入力されていれば○</t>
+  </si>
+  <si>
+    <t>登録日時 registered_timeに登録完了時刻が表記されていれば○</t>
+  </si>
+  <si>
+    <t>更新日時 update_timeに登録完了時刻が表記されていれば○</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1485,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Hiragino Sans"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -989,7 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1000,6 +1544,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1317,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F168" workbookViewId="0">
-      <selection activeCell="J196" sqref="J196"/>
+    <sheetView topLeftCell="E124" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1330,7 +1895,7 @@
     <col min="6" max="6" width="108.5" customWidth="1"/>
     <col min="7" max="7" width="36.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2674,6 +3239,9 @@
       <c r="J52" t="s">
         <v>29</v>
       </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
@@ -2700,6 +3268,9 @@
       <c r="J53" t="s">
         <v>29</v>
       </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
@@ -2720,6 +3291,9 @@
       <c r="I54" s="1">
         <v>45063</v>
       </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
@@ -2743,6 +3317,9 @@
       <c r="J55" t="s">
         <v>29</v>
       </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
@@ -2763,6 +3340,9 @@
       <c r="I56" s="1">
         <v>45063</v>
       </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
@@ -2786,6 +3366,9 @@
       <c r="J57" t="s">
         <v>29</v>
       </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
@@ -2809,6 +3392,9 @@
       <c r="J58" t="s">
         <v>29</v>
       </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
@@ -2832,6 +3418,9 @@
       <c r="J59" t="s">
         <v>29</v>
       </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
@@ -2855,6 +3444,9 @@
       <c r="J60" t="s">
         <v>29</v>
       </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
@@ -2875,6 +3467,9 @@
       <c r="I61" s="1">
         <v>45063</v>
       </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
@@ -2895,6 +3490,9 @@
       <c r="I62" s="1">
         <v>45063</v>
       </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
@@ -2915,6 +3513,9 @@
       <c r="I63" s="1">
         <v>45063</v>
       </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
@@ -2938,8 +3539,11 @@
       <c r="I64" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2958,8 +3562,11 @@
       <c r="I65" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2975,8 +3582,11 @@
       <c r="I66" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2995,8 +3605,11 @@
       <c r="I67" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3012,8 +3625,11 @@
       <c r="I68" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3032,8 +3648,11 @@
       <c r="I69" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3055,8 +3674,11 @@
       <c r="J70" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3075,8 +3697,11 @@
       <c r="I71" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3095,8 +3720,11 @@
       <c r="I72" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3115,8 +3743,11 @@
       <c r="I73" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3135,8 +3766,11 @@
       <c r="I74" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3155,8 +3789,11 @@
       <c r="I75" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3178,8 +3815,11 @@
       <c r="I76" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3198,8 +3838,11 @@
       <c r="I77" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3218,8 +3861,11 @@
       <c r="I78" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3238,8 +3884,11 @@
       <c r="I79" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3258,8 +3907,11 @@
       <c r="I80" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3284,8 +3936,11 @@
       <c r="J81" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3307,8 +3962,11 @@
       <c r="J82" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3330,8 +3988,11 @@
       <c r="J83" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3353,8 +4014,11 @@
       <c r="J84" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3373,8 +4037,11 @@
       <c r="I85" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3396,8 +4063,11 @@
       <c r="J86" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3419,8 +4089,11 @@
       <c r="J87" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3442,8 +4115,11 @@
       <c r="J88" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3465,8 +4141,11 @@
       <c r="J89" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3485,8 +4164,11 @@
       <c r="I90" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3505,8 +4187,11 @@
       <c r="I91" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3525,8 +4210,11 @@
       <c r="I92" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3548,8 +4236,11 @@
       <c r="I93" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3568,8 +4259,11 @@
       <c r="I94" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3588,8 +4282,11 @@
       <c r="I95" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3608,8 +4305,11 @@
       <c r="I96" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3628,8 +4328,11 @@
       <c r="I97" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3651,8 +4354,11 @@
       <c r="I98" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3674,8 +4380,11 @@
       <c r="I99" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3700,8 +4409,11 @@
       <c r="J100" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3723,8 +4435,11 @@
       <c r="J101" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3743,8 +4458,11 @@
       <c r="I102" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3766,8 +4484,11 @@
       <c r="J103" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3786,8 +4507,11 @@
       <c r="I104" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3809,8 +4533,11 @@
       <c r="J105" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3832,8 +4559,11 @@
       <c r="J106" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3852,8 +4582,11 @@
       <c r="I107" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3872,8 +4605,11 @@
       <c r="I108" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3892,8 +4628,11 @@
       <c r="I109" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3915,8 +4654,11 @@
       <c r="I110" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3938,8 +4680,11 @@
       <c r="I111" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3964,8 +4709,11 @@
       <c r="J112" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3987,8 +4735,11 @@
       <c r="J113" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4007,8 +4758,11 @@
       <c r="I114" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4030,8 +4784,11 @@
       <c r="J115" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4050,8 +4807,11 @@
       <c r="I116" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4073,8 +4833,11 @@
       <c r="J117" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4093,8 +4856,11 @@
       <c r="I118" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4113,8 +4879,11 @@
       <c r="I119" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4133,8 +4902,11 @@
       <c r="I120" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4153,8 +4925,11 @@
       <c r="I121" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4176,8 +4951,11 @@
       <c r="I122" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4196,8 +4974,11 @@
       <c r="I123" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4216,8 +4997,11 @@
       <c r="I124" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4236,8 +5020,11 @@
       <c r="I125" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4262,8 +5049,11 @@
       <c r="I126" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4285,8 +5075,11 @@
       <c r="I127" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="14.25">
+      <c r="K127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="14.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4314,8 +5107,11 @@
       <c r="I128" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4334,8 +5130,11 @@
       <c r="I129" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4360,8 +5159,11 @@
       <c r="I130" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4380,8 +5182,11 @@
       <c r="I131" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4403,8 +5208,11 @@
       <c r="I132" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4435,8 +5243,11 @@
       <c r="J133" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="14.25">
+      <c r="K133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="14.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4458,8 +5269,11 @@
       <c r="I134" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4484,8 +5298,11 @@
       <c r="I135" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4513,8 +5330,11 @@
       <c r="I136" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4536,8 +5356,11 @@
       <c r="I137" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4565,8 +5388,11 @@
       <c r="I138" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4588,8 +5414,11 @@
       <c r="I139" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4617,8 +5446,11 @@
       <c r="I140" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4640,8 +5472,11 @@
       <c r="I141" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4669,8 +5504,11 @@
       <c r="I142" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4692,8 +5530,11 @@
       <c r="I143" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4721,8 +5562,11 @@
       <c r="I144" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4747,8 +5591,11 @@
       <c r="I145" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="K145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4773,8 +5620,11 @@
       <c r="I146" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4799,8 +5649,11 @@
       <c r="I147" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="K147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4825,8 +5678,11 @@
       <c r="I148" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="K148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4851,8 +5707,11 @@
       <c r="I149" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="14.25">
+      <c r="K149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="14.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4877,8 +5736,11 @@
       <c r="I150" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="14.25">
+      <c r="K150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="14.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4903,8 +5765,11 @@
       <c r="I151" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="14.25">
+      <c r="K151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="14.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4929,8 +5794,11 @@
       <c r="I152" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="14.25">
+      <c r="K152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="14.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4955,8 +5823,11 @@
       <c r="I153" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="14.25">
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="14.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4981,8 +5852,11 @@
       <c r="I154" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="14.25">
+      <c r="K154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="14.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5007,8 +5881,11 @@
       <c r="I155" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="14.25">
+      <c r="K155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="14.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5033,8 +5910,11 @@
       <c r="I156" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="14.25">
+      <c r="K156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="14.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5059,8 +5939,11 @@
       <c r="I157" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" ht="14.25">
+      <c r="K157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="14.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5085,43 +5968,38 @@
       <c r="I158" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="14.25">
+      <c r="K158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="14.25">
       <c r="A159" t="s">
         <v>199</v>
       </c>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:9" ht="14.25">
+    <row r="160" spans="1:11" ht="14.25">
       <c r="A160" t="s">
         <v>200</v>
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:9" ht="14.25">
+    <row r="161" spans="1:11" ht="14.25">
       <c r="A161" t="s">
         <v>201</v>
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:9" ht="14.25">
+    <row r="162" spans="1:11" ht="14.25">
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>202</v>
       </c>
-      <c r="G163" t="s">
-        <v>203</v>
-      </c>
-      <c r="H163" t="s">
-        <v>203</v>
-      </c>
-      <c r="I163" s="1">
-        <v>45063</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="14.25">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" ht="14.25">
       <c r="B164" s="5" t="s">
         <v>11</v>
       </c>
@@ -5129,183 +6007,213 @@
         <v>21</v>
       </c>
       <c r="D164" t="s">
+        <v>203</v>
+      </c>
+      <c r="E164" t="s">
         <v>204</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>205</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>206</v>
       </c>
-      <c r="G164" t="s">
-        <v>203</v>
-      </c>
       <c r="H164" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I164" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="K164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="E165" t="s">
         <v>207</v>
       </c>
       <c r="F165" t="s">
+        <v>205</v>
+      </c>
+      <c r="G165" t="s">
         <v>206</v>
       </c>
-      <c r="G165" t="s">
-        <v>203</v>
-      </c>
       <c r="H165" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I165" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="K165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="E166" t="s">
         <v>208</v>
       </c>
       <c r="F166" t="s">
+        <v>205</v>
+      </c>
+      <c r="G166" t="s">
         <v>206</v>
       </c>
-      <c r="G166" t="s">
-        <v>203</v>
-      </c>
       <c r="H166" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I166" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="K166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="E167" t="s">
         <v>209</v>
       </c>
       <c r="F167" t="s">
+        <v>205</v>
+      </c>
+      <c r="G167" t="s">
         <v>206</v>
       </c>
-      <c r="G167" t="s">
-        <v>203</v>
-      </c>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I167" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="K167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="E168" t="s">
         <v>210</v>
       </c>
       <c r="F168" t="s">
+        <v>205</v>
+      </c>
+      <c r="G168" t="s">
         <v>206</v>
       </c>
-      <c r="G168" t="s">
-        <v>203</v>
-      </c>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I168" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="K168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="E169" t="s">
         <v>211</v>
       </c>
       <c r="F169" t="s">
+        <v>205</v>
+      </c>
+      <c r="G169" t="s">
         <v>206</v>
       </c>
-      <c r="G169" t="s">
-        <v>203</v>
-      </c>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I169" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="K169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="E170" t="s">
         <v>212</v>
       </c>
       <c r="F170" t="s">
+        <v>205</v>
+      </c>
+      <c r="G170" t="s">
         <v>206</v>
       </c>
-      <c r="G170" t="s">
-        <v>203</v>
-      </c>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I170" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="K170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="E171" t="s">
         <v>213</v>
       </c>
       <c r="F171" t="s">
+        <v>205</v>
+      </c>
+      <c r="G171" t="s">
         <v>206</v>
       </c>
-      <c r="G171" t="s">
-        <v>203</v>
-      </c>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I171" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="K171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="E172" t="s">
         <v>214</v>
       </c>
       <c r="F172" t="s">
+        <v>205</v>
+      </c>
+      <c r="G172" t="s">
         <v>206</v>
       </c>
-      <c r="G172" t="s">
-        <v>203</v>
-      </c>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I172" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="K172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="E173" t="s">
+        <v>204</v>
+      </c>
+      <c r="F173" t="s">
         <v>205</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>206</v>
       </c>
-      <c r="G173" t="s">
-        <v>203</v>
-      </c>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I173" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="K173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="E174" t="s">
         <v>215</v>
       </c>
       <c r="F174" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G174" t="s">
         <v>216</v>
@@ -5316,8 +6224,11 @@
       <c r="I174" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="K174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="D175" t="s">
         <v>217</v>
       </c>
@@ -5336,8 +6247,11 @@
       <c r="I175" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="K175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="E176" t="s">
         <v>220</v>
       </c>
@@ -5353,8 +6267,11 @@
       <c r="I176" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="177" spans="4:9">
+      <c r="K176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="4:11">
       <c r="E177" t="s">
         <v>221</v>
       </c>
@@ -5370,8 +6287,11 @@
       <c r="I177" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="178" spans="4:9">
+      <c r="K177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="4:11">
       <c r="E178" t="s">
         <v>222</v>
       </c>
@@ -5387,8 +6307,11 @@
       <c r="I178" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="179" spans="4:9">
+      <c r="K178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="4:11">
       <c r="E179" t="s">
         <v>223</v>
       </c>
@@ -5404,8 +6327,11 @@
       <c r="I179" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="180" spans="4:9">
+      <c r="K179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="4:11">
       <c r="E180" t="s">
         <v>224</v>
       </c>
@@ -5421,8 +6347,11 @@
       <c r="I180" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="181" spans="4:9">
+      <c r="K180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="4:11">
       <c r="E181" t="s">
         <v>225</v>
       </c>
@@ -5438,8 +6367,11 @@
       <c r="I181" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="182" spans="4:9">
+      <c r="K181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="4:11">
       <c r="E182" t="s">
         <v>226</v>
       </c>
@@ -5455,8 +6387,11 @@
       <c r="I182" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="183" spans="4:9">
+      <c r="K182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="4:11">
       <c r="E183" t="s">
         <v>227</v>
       </c>
@@ -5472,8 +6407,11 @@
       <c r="I183" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="184" spans="4:9">
+      <c r="K183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="4:11">
       <c r="E184" t="s">
         <v>218</v>
       </c>
@@ -5489,8 +6427,11 @@
       <c r="I184" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="185" spans="4:9">
+      <c r="K184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="4:11">
       <c r="E185" t="s">
         <v>228</v>
       </c>
@@ -5506,8 +6447,11 @@
       <c r="I185" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="186" spans="4:9">
+      <c r="K185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="4:11">
       <c r="D186" t="s">
         <v>229</v>
       </c>
@@ -5518,143 +6462,191 @@
         <v>231</v>
       </c>
       <c r="G186" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H186" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I186" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="187" spans="4:9">
+      <c r="J186" t="s">
+        <v>232</v>
+      </c>
+      <c r="K186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="4:11">
       <c r="D187" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E187" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F187" t="s">
         <v>231</v>
       </c>
       <c r="G187" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I187" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="188" spans="4:9">
+      <c r="J187" t="s">
+        <v>232</v>
+      </c>
+      <c r="K187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="4:11">
       <c r="E188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F188" t="s">
         <v>231</v>
       </c>
       <c r="G188" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H188" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I188" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="189" spans="4:9">
+      <c r="J188" t="s">
+        <v>232</v>
+      </c>
+      <c r="K188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="4:11">
       <c r="E189" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F189" t="s">
         <v>231</v>
       </c>
       <c r="G189" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H189" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I189" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="190" spans="4:9">
+      <c r="J189" t="s">
+        <v>232</v>
+      </c>
+      <c r="K189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="4:11">
       <c r="E190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F190" t="s">
         <v>231</v>
       </c>
       <c r="G190" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H190" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I190" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="191" spans="4:9">
+      <c r="J190" t="s">
+        <v>232</v>
+      </c>
+      <c r="K190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="4:11">
       <c r="E191" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F191" t="s">
         <v>231</v>
       </c>
       <c r="G191" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H191" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I191" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="192" spans="4:9">
+      <c r="J191" t="s">
+        <v>232</v>
+      </c>
+      <c r="K191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="4:11">
       <c r="E192" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F192" t="s">
         <v>231</v>
       </c>
       <c r="G192" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H192" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I192" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="193" spans="4:10">
+      <c r="J192" t="s">
+        <v>232</v>
+      </c>
+      <c r="K192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="4:11">
       <c r="E193" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F193" t="s">
         <v>231</v>
       </c>
       <c r="G193" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H193" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I193" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="194" spans="4:10">
+      <c r="J193" t="s">
+        <v>232</v>
+      </c>
+      <c r="K193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="4:11">
       <c r="E194" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F194" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G194" t="s">
         <v>17</v>
@@ -5665,28 +6657,37 @@
       <c r="I194" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="195" spans="4:10">
+      <c r="J194" t="s">
+        <v>232</v>
+      </c>
+      <c r="K194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="4:11">
       <c r="D195" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E195" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F195" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G195" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I195" s="1">
         <v>45063</v>
       </c>
       <c r="J195" t="s">
-        <v>247</v>
+        <v>232</v>
+      </c>
+      <c r="K195" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5696,4 +6697,1481 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6B500-8C8A-4E13-972D-3BBA9FCE29B2}">
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104:E125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B3" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="44.25" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21">
+      <c r="C14" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21">
+      <c r="C15" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21">
+      <c r="C16" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21">
+      <c r="C17" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21">
+      <c r="C18" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="21">
+      <c r="C19" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="21">
+      <c r="C20" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="33.75">
+      <c r="B21" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="21">
+      <c r="C22" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="21">
+      <c r="C23" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="21">
+      <c r="C24" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="21">
+      <c r="C25" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="21">
+      <c r="C26" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="21">
+      <c r="C27" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="21">
+      <c r="C28" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="33.75">
+      <c r="B29" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="21">
+      <c r="C30" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="21">
+      <c r="C31" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="21">
+      <c r="C32" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21">
+      <c r="C33" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="21">
+      <c r="C34" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="21">
+      <c r="C35" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="21">
+      <c r="C36" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="21">
+      <c r="C37" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="33.75">
+      <c r="B38" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="21">
+      <c r="C39" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="21">
+      <c r="C40" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="21">
+      <c r="C41" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="21">
+      <c r="C42" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="21">
+      <c r="C43" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="21">
+      <c r="C44" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="21">
+      <c r="C45" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="21">
+      <c r="C46" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="33.75">
+      <c r="B47" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="21">
+      <c r="C48" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="21">
+      <c r="C49" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="21">
+      <c r="C50" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="21">
+      <c r="C51" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="21">
+      <c r="C52" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="21">
+      <c r="C53" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="21">
+      <c r="C54" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="33.75">
+      <c r="B55" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="21">
+      <c r="C56" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="21">
+      <c r="C57" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="21">
+      <c r="C58" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="21">
+      <c r="C59" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="21">
+      <c r="C60" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="22.5" customHeight="1">
+      <c r="C61" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="33.75">
+      <c r="B62" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="C63" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="C64" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="33.75">
+      <c r="B65" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="21">
+      <c r="C66" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="21">
+      <c r="C67" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="21">
+      <c r="C68" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="21">
+      <c r="C69" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="21">
+      <c r="C70" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="21">
+      <c r="C71" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="21.75" customHeight="1">
+      <c r="C72" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="33.75">
+      <c r="B73" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="21">
+      <c r="C74" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="21">
+      <c r="C75" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="21">
+      <c r="C76" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="23.25" customHeight="1">
+      <c r="C77" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="21">
+      <c r="C78" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="33.75">
+      <c r="B79" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="21">
+      <c r="C80" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="21">
+      <c r="C81" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="21">
+      <c r="C82" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="21">
+      <c r="C83" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="21">
+      <c r="C84" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="21">
+      <c r="B85" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="21">
+      <c r="B86" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="21">
+      <c r="B87" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="21">
+      <c r="B88" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="21">
+      <c r="B89" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="21">
+      <c r="B90" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="21">
+      <c r="B92" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="21">
+      <c r="B93" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="48" customHeight="1">
+      <c r="B94" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="36" customHeight="1">
+      <c r="B95" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="36" customHeight="1">
+      <c r="B96" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="51">
+      <c r="B105" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="14.25">
+      <c r="B106" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="14.25">
+      <c r="C107" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="14.25">
+      <c r="D108" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="14.25">
+      <c r="D109" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="14.25">
+      <c r="D110" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="14.25">
+      <c r="D111" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="14.25">
+      <c r="C112" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" ht="14.25">
+      <c r="D113" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" ht="14.25">
+      <c r="D114" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" ht="14.25">
+      <c r="D115" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" ht="14.25">
+      <c r="D116" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" ht="14.25">
+      <c r="D117" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" ht="14.25">
+      <c r="D118" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" ht="14.25">
+      <c r="D119" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" ht="14.25">
+      <c r="D120" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" ht="14.25">
+      <c r="D121" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" ht="14.25">
+      <c r="D122" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" ht="14.25">
+      <c r="D123" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" ht="14.25">
+      <c r="D124" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" ht="14.25">
+      <c r="D125" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/account/単体テスト 提出用.xlsx
+++ b/account/単体テスト 提出用.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26508"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1570" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F82D012-239B-4795-A261-C5BC78367082}"/>
+  <xr:revisionPtr revIDLastSave="1670" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A83B3997-8ACD-404A-9382-0380098254E1}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="382">
   <si>
     <t>NO</t>
   </si>
@@ -896,6 +896,9 @@
 MYSQLに登録される</t>
   </si>
   <si>
+    <t>数字が半角全角書かれていない</t>
+  </si>
+  <si>
     <t>未入力で登録に進む</t>
   </si>
   <si>
@@ -916,6 +919,9 @@
     <t>名前（姓）が未入力ですと表示され遷移しない</t>
   </si>
   <si>
+    <t>未入力と表示され登録確認画面に遷移する</t>
+  </si>
+  <si>
     <t>テスト項目の手順でアカウント登録に入り
 名前（名）のみ未入力で「確認する」をクリック</t>
   </si>
@@ -982,6 +988,10 @@
     <t>指定文字のエラーメッセージが表示される</t>
   </si>
   <si>
+    <t>「指定されている形式で入力してください」
+とエラーメッセージが出る</t>
+  </si>
+  <si>
     <t>全角英字を入力して確認へ</t>
   </si>
   <si>
@@ -1023,6 +1033,9 @@
     <t>常用漢字を入力して確認へ</t>
   </si>
   <si>
+    <t>エラーメッセージは出ない/登録確認画面に遷移する</t>
+  </si>
+  <si>
     <t>ひらがなを入力して確認へ</t>
   </si>
   <si>
@@ -1047,6 +1060,9 @@
 異常値、指定文字以外の入力で登録へ進む</t>
   </si>
   <si>
+    <t>入力不可（変換できない）</t>
+  </si>
+  <si>
     <t>10文字以上入力して確認へ</t>
   </si>
   <si>
@@ -1092,6 +1108,12 @@
     <t>[-][スペース]以外を指定文字に混ぜて確認へ</t>
   </si>
   <si>
+    <t>半角[-]がエラーメッセージが出る</t>
+  </si>
+  <si>
+    <t>全角ー→○</t>
+  </si>
+  <si>
     <t>住所（番地）以外は正常値を入力
 異常値、指定文字以外の入力で登録へ進む</t>
   </si>
@@ -1136,9 +1158,6 @@
   </si>
   <si>
     <t>郵便番号に指定文字と異常値を混ぜて入力→確認へ</t>
-  </si>
-  <si>
-    <t>数字以外は入力できない</t>
   </si>
   <si>
     <t>指定文字と異常値の混合/住所（市区町村）</t>
@@ -1394,12 +1413,15 @@
   <si>
     <t>更新日時 update_timeに登録完了時刻が表記されていれば○</t>
   </si>
+  <si>
+    <t>IDは登録完了するたび➕1と数字が増えて登録されれば○</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,6 +1533,20 @@
       <name val="Hiragino Sans"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1533,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1565,6 +1601,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -6701,10 +6746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE6B500-8C8A-4E13-972D-3BBA9FCE29B2}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104:E125"/>
+    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107:G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6714,6 +6759,7 @@
     <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6760,1414 +6806,2557 @@
       <c r="E2" s="10" t="s">
         <v>252</v>
       </c>
+      <c r="F2" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="44.25" customHeight="1">
       <c r="B3" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="44.25" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="44.25" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>260</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="44.25" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="44.25" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="44.25" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="44.25" customHeight="1">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="44.25" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="44.25" customHeight="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="44.25" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="44.25" customHeight="1">
       <c r="B13" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21">
       <c r="C14" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21">
       <c r="C15" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>277</v>
+      <c r="F15" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21">
       <c r="C16" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="21">
+      <c r="G16" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="21">
       <c r="C17" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="21">
+      <c r="C18" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="21">
+      <c r="C19" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="21">
+      <c r="C20" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="33.75">
+      <c r="B21" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="21">
+      <c r="C22" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="21">
-      <c r="C18" s="13" t="s">
+      <c r="D22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="21">
+      <c r="C23" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="21">
-      <c r="C19" s="13" t="s">
+      <c r="D23" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="21">
+      <c r="C24" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="21">
-      <c r="C20" s="14" t="s">
+      <c r="D24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="21">
+      <c r="C25" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D25" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="21">
+      <c r="C26" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="21">
+      <c r="C27" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="21">
+      <c r="C28" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="33.75">
+      <c r="B29" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="21">
+      <c r="C30" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="21">
+      <c r="C31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="21">
+      <c r="C32" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="21">
+      <c r="C33" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="21">
+      <c r="C34" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="21">
+      <c r="C35" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="21">
+      <c r="C36" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="21">
+      <c r="C37" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="33.75">
+      <c r="B38" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="21">
+      <c r="C39" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="21">
+      <c r="C40" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="21">
+      <c r="C41" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="21">
+      <c r="C42" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="21">
+      <c r="C43" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="21">
+      <c r="C44" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="21">
+      <c r="C45" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="21">
+      <c r="C46" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="33.75">
+      <c r="B47" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="21">
+      <c r="C48" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="21">
+      <c r="C49" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="21">
+      <c r="C50" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="21">
+      <c r="C51" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="21">
+      <c r="C52" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G52" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="21">
+      <c r="C53" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="21">
+      <c r="C54" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="33.75">
+      <c r="B55" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G55" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="21">
+      <c r="C56" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="21">
+      <c r="C57" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="21">
+      <c r="C58" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="21">
+      <c r="C59" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="21">
+      <c r="C60" s="13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="33.75">
-      <c r="B21" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="21">
-      <c r="C22" s="13" t="s">
+      <c r="D60" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G60" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="22.5" customHeight="1">
+      <c r="C61" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="33.75">
+      <c r="B62" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="C63" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="C64" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="33.75">
+      <c r="B65" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="21">
+      <c r="C66" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="21">
+      <c r="C67" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="21">
+      <c r="C68" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="21">
-      <c r="C23" s="13" t="s">
+      <c r="D68" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="21">
-      <c r="C24" s="13" t="s">
+      <c r="F68" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="21">
-      <c r="C25" s="13" t="s">
+      <c r="G68" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="21">
+      <c r="C69" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G69" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="21">
+      <c r="C70" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="21">
+      <c r="C71" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="21.75" customHeight="1">
+      <c r="C72" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="33.75">
+      <c r="B73" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="21">
-      <c r="C26" s="13" t="s">
+      <c r="D73" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="21">
+      <c r="C74" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="21">
+      <c r="C75" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="21">
+      <c r="C76" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G76" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="23.25" customHeight="1">
+      <c r="C77" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="21">
-      <c r="C27" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="21">
-      <c r="C28" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="33.75">
-      <c r="B29" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="D77" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="21">
+      <c r="C78" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="G78" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H78" t="s">
+        <v>318</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="33.75">
+      <c r="B79" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="21">
+      <c r="C80" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G80" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="21">
+      <c r="C81" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G81" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="21">
+      <c r="C82" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="21">
-      <c r="C30" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="21">
-      <c r="C31" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="21">
-      <c r="C32" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="21">
-      <c r="C33" s="13" t="s">
+      <c r="D82" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="21">
-      <c r="C34" s="13" t="s">
+      <c r="F82" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="21">
-      <c r="C35" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="21">
-      <c r="C36" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="21">
-      <c r="C37" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="33.75">
-      <c r="B38" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="21">
-      <c r="C39" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="21">
-      <c r="C40" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="21">
-      <c r="C41" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="21">
-      <c r="C42" s="13" t="s">
+      <c r="G82" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="21">
+      <c r="C83" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="21">
+      <c r="C84" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="21">
-      <c r="C43" s="13" t="s">
+      <c r="F84" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="G84" s="1">
+        <v>45065</v>
+      </c>
+      <c r="H84" t="s">
+        <v>318</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="21">
+      <c r="B85" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="21">
-      <c r="C44" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="21">
-      <c r="C45" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="21">
-      <c r="C46" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="33.75">
-      <c r="B47" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="21">
-      <c r="C48" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="21">
-      <c r="C49" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="21">
-      <c r="C50" s="13" t="s">
+      <c r="G85" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="21">
+      <c r="B86" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="21">
-      <c r="C51" s="13" t="s">
+      <c r="F86" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="21">
-      <c r="C52" s="13" t="s">
+      <c r="G86" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="21">
+      <c r="B87" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="21">
-      <c r="C53" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="21">
-      <c r="C54" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="33.75">
-      <c r="B55" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="21">
-      <c r="C56" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="21">
-      <c r="C57" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="21">
-      <c r="C58" s="13" t="s">
+      <c r="G87" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="21">
+      <c r="B88" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G88" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="21">
+      <c r="B89" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="21">
-      <c r="C59" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="21">
-      <c r="C60" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="22.5" customHeight="1">
-      <c r="C61" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="33.75">
-      <c r="B62" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="C63" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="C64" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="33.75">
-      <c r="B65" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="21">
-      <c r="C66" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="21">
-      <c r="C67" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="21">
-      <c r="C68" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="21">
-      <c r="C69" s="13" t="s">
+      <c r="G89" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="21">
+      <c r="B90" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="21">
-      <c r="C70" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="21">
-      <c r="C71" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="21.75" customHeight="1">
-      <c r="C72" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="33.75">
-      <c r="B73" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="21">
-      <c r="C74" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="21">
-      <c r="C75" s="13" t="s">
+      <c r="G90" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="21">
+      <c r="B91" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F91" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="21">
-      <c r="C76" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="23.25" customHeight="1">
-      <c r="C77" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="21">
-      <c r="C78" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="33.75">
-      <c r="B79" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="21">
-      <c r="C80" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="21">
-      <c r="C81" s="13" t="s">
+      <c r="G91" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="21">
+      <c r="B92" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="21">
-      <c r="C82" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="21">
-      <c r="C83" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="21">
-      <c r="C84" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="21">
-      <c r="B85" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="21">
-      <c r="B86" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="21">
-      <c r="B87" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="21">
-      <c r="B88" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="21">
-      <c r="B89" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="21">
-      <c r="B90" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="21">
-      <c r="B92" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="21">
+      <c r="G92" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="21">
       <c r="B93" s="13" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" ht="48" customHeight="1">
+        <v>279</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G93" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="48" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" ht="36" customHeight="1">
+      <c r="F94" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="36" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" ht="36" customHeight="1">
+      <c r="F95" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="36" customHeight="1">
       <c r="B96" s="14" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E96" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="F96" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="2:5">
+      <c r="F97" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="13" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="2:5">
+      <c r="F98" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" s="13" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="2:5">
+      <c r="F99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" s="13" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="2:5">
+      <c r="F100" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E101" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="2:5">
+      <c r="F101" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" s="13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="2:5">
+      <c r="F102" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G102" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>342</v>
-      </c>
       <c r="D103" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="2:5">
+      <c r="F103" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>342</v>
-      </c>
       <c r="D104" s="13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" ht="51">
+      <c r="F104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="51">
       <c r="B105" s="14" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" ht="14.25">
+      <c r="F105" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="14.25">
       <c r="B106" s="13" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" ht="14.25">
+      <c r="F106" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="14.25">
       <c r="C107" s="13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" ht="14.25">
+      <c r="F107" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="14.25">
       <c r="D108" s="18" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" ht="14.25">
+      <c r="F108" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="14.25">
       <c r="D109" s="18" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" ht="14.25">
+      <c r="F109" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="14.25">
       <c r="D110" s="18" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" ht="14.25">
+      <c r="F110" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="14.25">
       <c r="D111" s="18" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" ht="14.25">
+      <c r="F111" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="14.25">
       <c r="C112" s="13" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="4:5" ht="14.25">
+      <c r="F112" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="4:9" ht="14.25">
       <c r="D113" s="18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E113" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="4:5" ht="14.25">
+      <c r="F113" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="4:9" ht="14.25">
       <c r="D114" s="18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="4:5" ht="14.25">
+      <c r="F114" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="4:9" ht="14.25">
       <c r="D115" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="4:5" ht="14.25">
+      <c r="F115" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="4:9" ht="14.25">
       <c r="D116" s="18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="4:5" ht="14.25">
+      <c r="F116" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="4:9" ht="14.25">
       <c r="D117" s="18" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="E117" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="4:5" ht="14.25">
+      <c r="F117" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="4:9" ht="14.25">
       <c r="D118" s="18" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="4:5" ht="14.25">
+      <c r="F118" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="4:9" ht="14.25">
       <c r="D119" s="18" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="4:5" ht="14.25">
+      <c r="F119" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="4:9" ht="14.25">
       <c r="D120" s="18" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="4:5" ht="14.25">
+      <c r="F120" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="4:9" ht="14.25">
       <c r="D121" s="18" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="4:5" ht="14.25">
+      <c r="F121" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="4:9" ht="14.25">
       <c r="D122" s="18" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="4:5" ht="14.25">
+      <c r="F122" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="4:9" ht="14.25">
       <c r="D123" s="18" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="4:5" ht="14.25">
+      <c r="F123" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="4:9" ht="14.25">
       <c r="D124" s="18" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="4:5" ht="14.25">
+      <c r="F124" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="4:9" ht="14.25">
       <c r="D125" s="18" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E125" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="4:9">
+      <c r="D126" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="1">
+        <v>45065</v>
+      </c>
+      <c r="I126" t="s">
         <v>17</v>
       </c>
     </row>
